--- a/Test Data/Verify_24V_Load_On_Addition_Deletion_Of_Slot_Cards.xlsx
+++ b/Test Data/Verify_24V_Load_On_Addition_Deletion_Of_Slot_Cards.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdhakaa\Documents\NG Consys Project\Testing\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743D3E51-95DB-4B03-9AB4-A298E4EEB9D1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels and Devices" sheetId="6" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -172,7 +171,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -597,11 +596,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -735,7 +734,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="3">
-        <v>0.39300000000000002</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>37</v>
@@ -776,7 +775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02E869E-8A1C-4935-AE0C-755F45D5F473}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Test Data/Verify_24V_Load_On_Addition_Deletion_Of_Slot_Cards.xlsx
+++ b/Test Data/Verify_24V_Load_On_Addition_Deletion_Of_Slot_Cards.xlsx
@@ -153,12 +153,6 @@
     <t>Panel Accessories Label</t>
   </si>
   <si>
-    <t>FB800,IOB800,PCS800,POS800-S,POS800-M</t>
-  </si>
-  <si>
-    <t>FB800-1,IOB800-1,PCS800-1,POS800-S-1,POS800-M-1</t>
-  </si>
-  <si>
     <t>Expected 4th24V PSU Load value</t>
   </si>
   <si>
@@ -166,6 +160,12 @@
   </si>
   <si>
     <t>Accessories</t>
+  </si>
+  <si>
+    <t>FB800,IOB800,POS800-S,POS800-M</t>
+  </si>
+  <si>
+    <t>FB800-1,IOB800-1,POS800-S-1,POS800-M-1</t>
   </si>
 </sst>
 </file>
@@ -599,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -708,13 +708,13 @@
         <v>39</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N7" s="11" t="s">
         <v>32</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -746,22 +746,22 @@
         <v>35</v>
       </c>
       <c r="J8" s="3">
-        <v>0.46100000000000002</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N8" s="3">
-        <v>1.242</v>
+        <v>1.101</v>
       </c>
       <c r="O8" s="3">
-        <v>1.1739999999999999</v>
+        <v>0.32900000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/Verify_24V_Load_On_Addition_Deletion_Of_Slot_Cards.xlsx
+++ b/Test Data/Verify_24V_Load_On_Addition_Deletion_Of_Slot_Cards.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D23E74-CD03-4287-85BE-D6E68B9838F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels and Devices" sheetId="6" r:id="rId1"/>
@@ -20,18 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>Color Codes</t>
   </si>
@@ -166,12 +161,18 @@
   </si>
   <si>
     <t>FB800-1,IOB800-1,POS800-S-1,POS800-M-1</t>
+  </si>
+  <si>
+    <t>Loading Details Name</t>
+  </si>
+  <si>
+    <t>Main Processor 24V (A)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -596,11 +597,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -617,9 +618,10 @@
     <col min="11" max="13" width="30" style="14" customWidth="1"/>
     <col min="14" max="14" width="30" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -627,7 +629,7 @@
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
     </row>
-    <row r="2" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -639,7 +641,7 @@
       </c>
       <c r="D2" s="18"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -649,7 +651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -661,16 +663,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -716,8 +718,11 @@
       <c r="O7" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="P7" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -762,6 +767,9 @@
       </c>
       <c r="O8" s="3">
         <v>0.32900000000000001</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -775,7 +783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -891,5 +899,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Data/Verify_24V_Load_On_Addition_Deletion_Of_Slot_Cards.xlsx
+++ b/Test Data/Verify_24V_Load_On_Addition_Deletion_Of_Slot_Cards.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D23E74-CD03-4287-85BE-D6E68B9838F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels and Devices" sheetId="6" r:id="rId1"/>
@@ -136,12 +135,6 @@
     <t>Slot Cards</t>
   </si>
   <si>
-    <t>PCH800-1,PNI800-2</t>
-  </si>
-  <si>
-    <t>PCH800,PNI800</t>
-  </si>
-  <si>
     <t>Panel Accessories Devices</t>
   </si>
   <si>
@@ -166,13 +159,19 @@
     <t>Loading Details Name</t>
   </si>
   <si>
-    <t>Main Processor 24V (A)</t>
+    <t>24V Rail(A)</t>
+  </si>
+  <si>
+    <t>PCH800 5.0A,PNI800</t>
+  </si>
+  <si>
+    <t>PCH800 5.0A-1,PNI800-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -597,11 +596,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,22 +703,22 @@
         <v>28</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="N7" s="11" t="s">
         <v>32</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
@@ -742,10 +741,10 @@
         <v>0.32900000000000001</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>35</v>
@@ -754,13 +753,13 @@
         <v>0.39700000000000002</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N8" s="3">
         <v>1.101</v>
@@ -769,7 +768,7 @@
         <v>0.32900000000000001</v>
       </c>
       <c r="P8" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -783,7 +782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Test Data/Verify_24V_Load_On_Addition_Deletion_Of_Slot_Cards.xlsx
+++ b/Test Data/Verify_24V_Load_On_Addition_Deletion_Of_Slot_Cards.xlsx
@@ -600,7 +600,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -765,7 +765,7 @@
         <v>1.101</v>
       </c>
       <c r="O8" s="3">
-        <v>0.32900000000000001</v>
+        <v>1.0329999999999999</v>
       </c>
       <c r="P8" s="16" t="s">
         <v>44</v>

--- a/Test Data/Verify_24V_Load_On_Addition_Deletion_Of_Slot_Cards.xlsx
+++ b/Test Data/Verify_24V_Load_On_Addition_Deletion_Of_Slot_Cards.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CC474C-EC57-4DF1-A160-B51919AB6E58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels and Devices" sheetId="6" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>Color Codes</t>
   </si>
@@ -153,25 +154,34 @@
     <t>FB800,IOB800,POS800-S,POS800-M</t>
   </si>
   <si>
-    <t>FB800-1,IOB800-1,POS800-S-1,POS800-M-1</t>
-  </si>
-  <si>
     <t>Loading Details Name</t>
   </si>
   <si>
     <t>24V Rail(A)</t>
   </si>
   <si>
-    <t>PCH800 5.0A,PNI800</t>
-  </si>
-  <si>
-    <t>PCH800 5.0A-1,PNI800-2</t>
+    <t>PCH800 5.0A</t>
+  </si>
+  <si>
+    <t>PCH800 5.0A-1</t>
+  </si>
+  <si>
+    <t>Fuse board - 1,IOB800 - 1,POS800-S - 1,POS800-M - 1</t>
+  </si>
+  <si>
+    <t>Expected Max 24V PSU Load value</t>
+  </si>
+  <si>
+    <t>Expected Max 2nd 24V PSU Load value</t>
+  </si>
+  <si>
+    <t>9.700</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -279,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -317,6 +327,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,11 +607,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,9 +629,11 @@
     <col min="14" max="14" width="30" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="29.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -628,7 +641,7 @@
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
     </row>
-    <row r="2" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -640,7 +653,7 @@
       </c>
       <c r="D2" s="18"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -650,7 +663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -662,16 +675,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
       <c r="D5" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -718,10 +731,16 @@
         <v>38</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -738,37 +757,43 @@
         <v>14</v>
       </c>
       <c r="F8" s="3">
-        <v>0.32900000000000001</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="G8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>35</v>
       </c>
       <c r="J8" s="3">
-        <v>0.39700000000000002</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>41</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M8" s="16" t="s">
         <v>40</v>
       </c>
       <c r="N8" s="3">
-        <v>1.101</v>
+        <v>1.0229999999999999</v>
       </c>
       <c r="O8" s="3">
-        <v>1.0329999999999999</v>
+        <v>1.0229999999999999</v>
       </c>
       <c r="P8" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" s="19" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -782,7 +807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Test Data/Verify_24V_Load_On_Addition_Deletion_Of_Slot_Cards.xlsx
+++ b/Test Data/Verify_24V_Load_On_Addition_Deletion_Of_Slot_Cards.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CC474C-EC57-4DF1-A160-B51919AB6E58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26A7A52-83F8-4FB2-B740-34F84332A56F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels and Devices" sheetId="6" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="51">
   <si>
     <t>Color Codes</t>
   </si>
@@ -151,9 +152,6 @@
     <t>Accessories</t>
   </si>
   <si>
-    <t>FB800,IOB800,POS800-S,POS800-M</t>
-  </si>
-  <si>
     <t>Loading Details Name</t>
   </si>
   <si>
@@ -166,9 +164,6 @@
     <t>PCH800 5.0A-1</t>
   </si>
   <si>
-    <t>Fuse board - 1,IOB800 - 1,POS800-S - 1,POS800-M - 1</t>
-  </si>
-  <si>
     <t>Expected Max 24V PSU Load value</t>
   </si>
   <si>
@@ -176,6 +171,15 @@
   </si>
   <si>
     <t>9.700</t>
+  </si>
+  <si>
+    <t>FB800,POS800-S,POS800-M</t>
+  </si>
+  <si>
+    <t>Fuse board - 1,POS800-S - 1,POS800-M - 1</t>
+  </si>
+  <si>
+    <t>NGC-571/T1397 OR TC-183</t>
   </si>
 </sst>
 </file>
@@ -321,13 +325,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,12 +638,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -648,10 +652,10 @@
       <c r="B2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="18"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -667,8 +671,8 @@
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>34</v>
+      <c r="B4" t="s">
+        <v>50</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8" t="s">
@@ -731,13 +735,13 @@
         <v>38</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -760,10 +764,10 @@
         <v>0.31900000000000001</v>
       </c>
       <c r="G8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>35</v>
@@ -772,27 +776,27 @@
         <v>0.31900000000000001</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M8" s="16" t="s">
         <v>40</v>
       </c>
       <c r="N8" s="3">
-        <v>1.0229999999999999</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="O8" s="3">
-        <v>1.0229999999999999</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="P8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="R8" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="R8" s="17" t="s">
         <v>24</v>
       </c>
     </row>
@@ -925,4 +929,204 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4FAC4E-A21C-444B-98FD-8216DC4BA3FB}">
+  <dimension ref="A1:R8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19.5546875" customWidth="1"/>
+    <col min="10" max="10" width="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="30" style="14" customWidth="1"/>
+    <col min="14" max="14" width="30" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C5" s="3"/>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="6">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="R8" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>